--- a/ORG_SECTOR.xlsx
+++ b/ORG_SECTOR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6627D2BA-49D4-477D-8088-FD6C5161C961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71B42AF-9B9A-43AC-B030-001CBFDAB8C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>ORG_SEC_PK</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>ภคม.</t>
+  </si>
+  <si>
+    <t>ORG_SEC_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_SEC_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_SEC_STATUS</t>
   </si>
 </sst>
 </file>
@@ -475,20 +484,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" customWidth="1"/>
-    <col min="2" max="3" width="41.08984375" customWidth="1"/>
-    <col min="4" max="11" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="3" width="41.140625" customWidth="1"/>
+    <col min="4" max="11" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +507,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13000</v>
       </c>
@@ -510,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13001</v>
       </c>
@@ -521,7 +539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13002</v>
       </c>
@@ -532,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13003</v>
       </c>
@@ -543,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13004</v>
       </c>
@@ -554,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13005</v>
       </c>
@@ -565,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13006</v>
       </c>
@@ -576,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13007</v>
       </c>
@@ -587,7 +605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13008</v>
       </c>
@@ -598,7 +616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13009</v>
       </c>
@@ -609,7 +627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13010</v>
       </c>
@@ -620,7 +638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13011</v>
       </c>
@@ -631,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13012</v>
       </c>
@@ -642,7 +660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13013</v>
       </c>
@@ -653,7 +671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13014</v>
       </c>
@@ -664,7 +682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13015</v>
       </c>
@@ -675,7 +693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13016</v>
       </c>
@@ -686,7 +704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13017</v>
       </c>
@@ -697,7 +715,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13018</v>
       </c>
@@ -708,7 +726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13019</v>
       </c>
@@ -719,7 +737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13020</v>
       </c>
@@ -730,7 +748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13021</v>
       </c>
@@ -741,7 +759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13022</v>
       </c>
@@ -752,7 +770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13023</v>
       </c>
@@ -763,7 +781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13024</v>
       </c>
@@ -774,7 +792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13025</v>
       </c>
@@ -785,7 +803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13026</v>
       </c>
@@ -796,7 +814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13027</v>
       </c>
@@ -807,7 +825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13028</v>
       </c>
@@ -818,7 +836,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13029</v>
       </c>
@@ -829,7 +847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13030</v>
       </c>
@@ -840,7 +858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13031</v>
       </c>
@@ -851,7 +869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13032</v>
       </c>
@@ -862,7 +880,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13033</v>
       </c>
